--- a/Backend/Model Metrics/metrics_rfc_CAP_vent.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_CAP_vent.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8186274509803921</v>
+        <v>0.8317843866171004</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8357289527720739</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.3360995850622407</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7981651376146789</v>
+        <v>0.9748502994011976</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8871587850826606</v>
+        <v>0.8964146233442042</v>
       </c>
     </row>
   </sheetData>
